--- a/data/trans_orig/LAWTONB_2R3-Clase-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R3-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8111</v>
+        <v>8860</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06137361964644848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01538448244807912</v>
+        <v>0.0157020568178509</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1356721180305896</v>
+        <v>0.1481960881564239</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>6018</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2611</v>
+        <v>2192</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11458</v>
+        <v>11880</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2025735787907154</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08789601307672538</v>
+        <v>0.07378119848459602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3856817975006129</v>
+        <v>0.39987168899361</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>9687</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5460</v>
+        <v>4956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16709</v>
+        <v>17344</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1082472395843919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06100612163913458</v>
+        <v>0.05537871617952891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1867020154923678</v>
+        <v>0.1937998699219675</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>56115</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51673</v>
+        <v>50924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58864</v>
+        <v>58845</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9386263803535515</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8643278819694105</v>
+        <v>0.8518039118435762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9846155175519208</v>
+        <v>0.9842979431821491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -836,19 +836,19 @@
         <v>23691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18251</v>
+        <v>17829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27098</v>
+        <v>27517</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7974264212092846</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6143182024993874</v>
+        <v>0.6001283110063884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9121039869232749</v>
+        <v>0.9262188015154039</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -857,19 +857,19 @@
         <v>79806</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72784</v>
+        <v>72149</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84033</v>
+        <v>84537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8917527604156081</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8132979845076317</v>
+        <v>0.8062001300780307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9389938783608653</v>
+        <v>0.9446212838204707</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6141</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2451</v>
+        <v>2101</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13800</v>
+        <v>13762</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1208098660734207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04821678013270522</v>
+        <v>0.04132677928289812</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2715023198567018</v>
+        <v>0.2707550442783851</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>3248</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>950</v>
+        <v>905</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7727</v>
+        <v>7632</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2057277436256637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06018966976472823</v>
+        <v>0.05735750139410262</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4894641585848244</v>
+        <v>0.4834806897236717</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1003,19 +1003,19 @@
         <v>9388</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4355</v>
+        <v>3926</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16876</v>
+        <v>16429</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1409326010394945</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06537184216814934</v>
+        <v>0.05892773331965927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2533258801630996</v>
+        <v>0.2466283272526708</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>44689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37030</v>
+        <v>37068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48379</v>
+        <v>48729</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8791901339265793</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7284976801432982</v>
+        <v>0.7292449557216144</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9517832198672949</v>
+        <v>0.9586732207171028</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1053,19 +1053,19 @@
         <v>12538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8059</v>
+        <v>8154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14836</v>
+        <v>14881</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7942722563743363</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5105358414151757</v>
+        <v>0.5165193102763286</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9398103302352717</v>
+        <v>0.9426424986058972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -1074,19 +1074,19 @@
         <v>57228</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>49740</v>
+        <v>50187</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62261</v>
+        <v>62690</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8590673989605055</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7466741198369005</v>
+        <v>0.7533716727473294</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9346281578318507</v>
+        <v>0.9410722666803408</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3514</v>
+        <v>3640</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13456</v>
+        <v>13321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1094445629134576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04897584760387636</v>
+        <v>0.05073484023563273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1875358227614817</v>
+        <v>0.1856473562153982</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>4473</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9884</v>
+        <v>9783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1842574817176131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04793427346823652</v>
+        <v>0.04781775055222755</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4071777241778796</v>
+        <v>0.4030036817705081</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1220,19 +1220,19 @@
         <v>12326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6674</v>
+        <v>7284</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20454</v>
+        <v>19621</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1283565332586485</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06950130728571963</v>
+        <v>0.07584885772574626</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2129985281396569</v>
+        <v>0.2043237105358125</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>63901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>58298</v>
+        <v>58433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68240</v>
+        <v>68114</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8905554370865424</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8124641772385183</v>
+        <v>0.8143526437846018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9510241523961236</v>
+        <v>0.9492651597643669</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -1270,19 +1270,19 @@
         <v>19802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14391</v>
+        <v>14492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23111</v>
+        <v>23114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.815742518282387</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.59282227582212</v>
+        <v>0.596996318229492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9520657265317635</v>
+        <v>0.9521822494477724</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>88</v>
@@ -1291,19 +1291,19 @@
         <v>83704</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>75576</v>
+        <v>76409</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89356</v>
+        <v>88746</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8716434667413514</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7870014718603431</v>
+        <v>0.7956762894641877</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9304986927142803</v>
+        <v>0.9241511422742539</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>39398</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29867</v>
+        <v>29180</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52056</v>
+        <v>51111</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1514902283060059</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1148416494572278</v>
+        <v>0.1121983819471116</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2001586841262773</v>
+        <v>0.1965252615510422</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7353</v>
+        <v>7640</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20552</v>
+        <v>21196</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1504750050958114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08574776402653059</v>
+        <v>0.0890979473731173</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2396676556921979</v>
+        <v>0.2471748155118496</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1437,19 +1437,19 @@
         <v>52302</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41028</v>
+        <v>40368</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66961</v>
+        <v>64712</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1512384890367726</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1186385216994881</v>
+        <v>0.1167293927764446</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1936263285997468</v>
+        <v>0.1871229667349781</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>220674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>208016</v>
+        <v>208961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>230205</v>
+        <v>230892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8485097716939941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7998413158737228</v>
+        <v>0.8034747384489571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8851583505427723</v>
+        <v>0.8878016180528884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -1487,19 +1487,19 @@
         <v>72848</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65200</v>
+        <v>64556</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78399</v>
+        <v>78112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8495249949041886</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7603323443078024</v>
+        <v>0.7528251844881512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9142522359734696</v>
+        <v>0.9109020526268827</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>310</v>
@@ -1508,19 +1508,19 @@
         <v>293522</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>278863</v>
+        <v>281112</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>304796</v>
+        <v>305456</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8487615109632274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8063736714002533</v>
+        <v>0.812877033265022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8813614783005119</v>
+        <v>0.8832706072235554</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>6677</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3005</v>
+        <v>3064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13813</v>
+        <v>12236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1203886756292972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05417923781129055</v>
+        <v>0.05524194855586045</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2490362915504094</v>
+        <v>0.2206051738681683</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>24925</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17016</v>
+        <v>16607</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34915</v>
+        <v>34238</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2589659173629238</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1767850666288361</v>
+        <v>0.1725432344840947</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3627563219457461</v>
+        <v>0.3557244633797609</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1654,19 +1654,19 @@
         <v>31603</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22302</v>
+        <v>21454</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43456</v>
+        <v>41342</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2083036695197649</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1469962739600144</v>
+        <v>0.1414105136009276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2864315131010128</v>
+        <v>0.2724953727029529</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>48788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41652</v>
+        <v>43229</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52460</v>
+        <v>52401</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8796113243707028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7509637084495907</v>
+        <v>0.7793948261318316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9458207621887095</v>
+        <v>0.9447580514441402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -1704,19 +1704,19 @@
         <v>71325</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>61335</v>
+        <v>62012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79234</v>
+        <v>79643</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7410340826370762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.637243678054254</v>
+        <v>0.6442755366202394</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8232149333711639</v>
+        <v>0.8274567655159056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>121</v>
@@ -1725,19 +1725,19 @@
         <v>120112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>108259</v>
+        <v>110373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>129413</v>
+        <v>130261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7916963304802351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7135684868989871</v>
+        <v>0.7275046272970475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8530037260399855</v>
+        <v>0.8585894863990723</v>
       </c>
     </row>
     <row r="18">
@@ -1850,19 +1850,19 @@
         <v>74277</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59466</v>
+        <v>59259</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90806</v>
+        <v>91117</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1747404321253812</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1398964681976277</v>
+        <v>0.139411140909152</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2136258934161748</v>
+        <v>0.214358630183127</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -1871,19 +1871,19 @@
         <v>75191</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59532</v>
+        <v>60433</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91458</v>
+        <v>94146</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1753875962428441</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1388606506901334</v>
+        <v>0.1409622424905117</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2133304461547354</v>
+        <v>0.2196002022224856</v>
       </c>
     </row>
     <row r="20">
@@ -1921,19 +1921,19 @@
         <v>350793</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>334264</v>
+        <v>333953</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>365604</v>
+        <v>365811</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8252595678746188</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7863741065838252</v>
+        <v>0.7856413698168729</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8601035318023723</v>
+        <v>0.8605888590908481</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>347</v>
@@ -1942,19 +1942,19 @@
         <v>353524</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>337257</v>
+        <v>334569</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>369183</v>
+        <v>368282</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8246124037571559</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7866695538452646</v>
+        <v>0.7803997977775144</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8611393493098662</v>
+        <v>0.8590377575094885</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>64653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51678</v>
+        <v>51605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80907</v>
+        <v>79900</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1289065948449113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1030366285599808</v>
+        <v>0.1028902868927129</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1613128336271391</v>
+        <v>0.1593062612540513</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>116</v>
@@ -2067,19 +2067,19 @@
         <v>125845</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1859291040717413</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>185</v>
@@ -2088,19 +2088,19 @@
         <v>190498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166153</v>
+        <v>166564</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>217702</v>
+        <v>217279</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1616590230903612</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1409996829829996</v>
+        <v>0.1413482062079704</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1847449097094044</v>
+        <v>0.1843860267981563</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>436898</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>420644</v>
+        <v>421651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>449873</v>
+        <v>449946</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8710934051550887</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.838687166372861</v>
+        <v>0.8406937387459488</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8969633714400191</v>
+        <v>0.8971097131072872</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>545</v>
@@ -2138,19 +2138,19 @@
         <v>550997</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>529770</v>
+        <v>529131</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>570750</v>
+        <v>571019</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8140708959282587</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7827080581902053</v>
+        <v>0.7817644815420532</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8432537628131926</v>
+        <v>0.8436515435069986</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>998</v>
@@ -2159,19 +2159,19 @@
         <v>987895</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>960691</v>
+        <v>961114</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1012240</v>
+        <v>1011829</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8383409769096388</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8152550902905956</v>
+        <v>0.8156139732018431</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8590003170170004</v>
+        <v>0.8586517937920296</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>5264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12067</v>
+        <v>12557</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1198684563789878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02571408139403946</v>
+        <v>0.02531750627486008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2747553044942213</v>
+        <v>0.2859261162890027</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6927</v>
+        <v>6751</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08510507578415429</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2739155564908178</v>
+        <v>0.2669592222864466</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2547,19 +2547,19 @@
         <v>7417</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2922</v>
+        <v>3070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14482</v>
+        <v>15222</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.107165455368622</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04221946573520473</v>
+        <v>0.04436529716479947</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2092583787754394</v>
+        <v>0.2199457831070096</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>38654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31851</v>
+        <v>31361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42789</v>
+        <v>42806</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8801315436210122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7252446955057787</v>
+        <v>0.7140738837109973</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9742859186059606</v>
+        <v>0.9746824937251399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -2597,7 +2597,7 @@
         <v>23137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>25289</v>
@@ -2606,7 +2606,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2618,19 +2618,19 @@
         <v>61790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54725</v>
+        <v>53985</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66285</v>
+        <v>66137</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.892834544631378</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7907416212245606</v>
+        <v>0.7800542168929905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9577805342647953</v>
+        <v>0.9556347028352006</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>7519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2803</v>
+        <v>3159</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14925</v>
+        <v>15364</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1240172701524819</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0462361108552126</v>
+        <v>0.0521001794353409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2461697154679667</v>
+        <v>0.2534067590431633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2743,19 +2743,19 @@
         <v>4303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9079</v>
+        <v>8933</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2276367525973143</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05734176859835436</v>
+        <v>0.05742297651447682</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4803066548842577</v>
+        <v>0.4725754953574635</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2764,19 +2764,19 @@
         <v>11822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5991</v>
+        <v>6164</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20340</v>
+        <v>20772</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.148643689295317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07532529045859948</v>
+        <v>0.07749963371678373</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2557452635373892</v>
+        <v>0.2611797940966999</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>53111</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45705</v>
+        <v>45266</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57827</v>
+        <v>57471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.875982729847518</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7538302845320334</v>
+        <v>0.7465932409568358</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9537638891447877</v>
+        <v>0.9478998205646592</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -2814,19 +2814,19 @@
         <v>14599</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9823</v>
+        <v>9969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17818</v>
+        <v>17817</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7723632474026857</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5196933451157423</v>
+        <v>0.5274245046425367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9426582314016456</v>
+        <v>0.9425770234855232</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -2835,19 +2835,19 @@
         <v>67709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59191</v>
+        <v>58759</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>73540</v>
+        <v>73367</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.851356310704683</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7442547364626108</v>
+        <v>0.7388202059033001</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9246747095414005</v>
+        <v>0.9225003662832164</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>18029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10637</v>
+        <v>9991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28339</v>
+        <v>28700</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1519484375659226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08964437103131015</v>
+        <v>0.08419956736093227</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2388372794600521</v>
+        <v>0.2418794283168078</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -2960,19 +2960,19 @@
         <v>12605</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7135</v>
+        <v>7140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19833</v>
+        <v>19897</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2307938791380352</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1306436509751205</v>
+        <v>0.130741955910246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3631450835927265</v>
+        <v>0.3643210460806479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -2981,19 +2981,19 @@
         <v>30634</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20556</v>
+        <v>20458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43790</v>
+        <v>43102</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1768007262882918</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.118634445523492</v>
+        <v>0.118072250583753</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2527271173776893</v>
+        <v>0.2487611927228696</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>100624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90314</v>
+        <v>89953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108016</v>
+        <v>108662</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8480515624340774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7611627205399479</v>
+        <v>0.7581205716831924</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9103556289686898</v>
+        <v>0.9158004326390676</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -3031,19 +3031,19 @@
         <v>42010</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34782</v>
+        <v>34718</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47480</v>
+        <v>47475</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7692061208619648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6368549164072735</v>
+        <v>0.6356789539193521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8693563490248795</v>
+        <v>0.8692580440897539</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>127</v>
@@ -3052,19 +3052,19 @@
         <v>142634</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129478</v>
+        <v>130166</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152712</v>
+        <v>152810</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8231992737117082</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7472728826223106</v>
+        <v>0.7512388072771303</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.881365554476508</v>
+        <v>0.8819277494162467</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>63203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48803</v>
+        <v>49794</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77797</v>
+        <v>78935</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2727159310453737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.210582645612473</v>
+        <v>0.2148600174443621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3356884024467485</v>
+        <v>0.3406009697435943</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3177,19 +3177,19 @@
         <v>15256</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8750</v>
+        <v>8785</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22097</v>
+        <v>22511</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2538636201429352</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1456005465510926</v>
+        <v>0.1461828343017509</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3677089898455402</v>
+        <v>0.3745860446789087</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -3198,19 +3198,19 @@
         <v>78459</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62920</v>
+        <v>61759</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94000</v>
+        <v>95023</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2688340009734776</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2155899921097733</v>
+        <v>0.211613898174447</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3220843976912422</v>
+        <v>0.3255891443629524</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>168550</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>153956</v>
+        <v>152818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182950</v>
+        <v>181959</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7272840689546263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6643115975532515</v>
+        <v>0.6593990302564057</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.789417354387527</v>
+        <v>0.7851399825556379</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -3248,19 +3248,19 @@
         <v>44839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37998</v>
+        <v>37584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51345</v>
+        <v>51310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7461363798570648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6322910101544597</v>
+        <v>0.6254139553210913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8543994534489073</v>
+        <v>0.8538171656982489</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -3269,19 +3269,19 @@
         <v>213389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197848</v>
+        <v>196825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>228928</v>
+        <v>230089</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7311659990265224</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6779156023087578</v>
+        <v>0.6744108556370475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7844100078902267</v>
+        <v>0.7883861018255534</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>22385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14758</v>
+        <v>13972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31557</v>
+        <v>31372</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2179743604598186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1437080132264403</v>
+        <v>0.1360503441778727</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.307282248021255</v>
+        <v>0.3054838924436219</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -3394,19 +3394,19 @@
         <v>63518</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50374</v>
+        <v>50833</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77840</v>
+        <v>78608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.337141891120907</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2673793201282603</v>
+        <v>0.2698126964488148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4131612971374474</v>
+        <v>0.4172411465473552</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -3415,19 +3415,19 @@
         <v>85903</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70549</v>
+        <v>70496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>102535</v>
+        <v>103428</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2951007971738758</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2423562893060624</v>
+        <v>0.2421757955738388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3522370012415929</v>
+        <v>0.3553047853448837</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>80311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71139</v>
+        <v>71324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>87938</v>
+        <v>88724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7820256395401814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.692717751978745</v>
+        <v>0.694516107556378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8562919867735597</v>
+        <v>0.8639496558221273</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -3465,19 +3465,19 @@
         <v>124882</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110560</v>
+        <v>109792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>138026</v>
+        <v>137567</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.662858108879093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5868387028625524</v>
+        <v>0.5827588534526447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7326206798717396</v>
+        <v>0.7301873035511851</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>194</v>
@@ -3486,19 +3486,19 @@
         <v>205193</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188561</v>
+        <v>187668</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>220547</v>
+        <v>220600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7048992028261242</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6477629987584067</v>
+        <v>0.6446952146551164</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7576437106939375</v>
+        <v>0.7578242044261609</v>
       </c>
     </row>
     <row r="18">
@@ -3603,19 +3603,19 @@
         <v>95650</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78674</v>
+        <v>79265</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>113143</v>
+        <v>115245</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2423342536463578</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1993239924654701</v>
+        <v>0.2008222128194453</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2866534155307869</v>
+        <v>0.2919791211349994</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -3624,19 +3624,19 @@
         <v>95650</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79418</v>
+        <v>79209</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>114844</v>
+        <v>114188</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2411199772214421</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2001998531931653</v>
+        <v>0.1996748006783622</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2895051131139282</v>
+        <v>0.2878496380663307</v>
       </c>
     </row>
     <row r="20">
@@ -3666,19 +3666,19 @@
         <v>299054</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>281561</v>
+        <v>279459</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>316030</v>
+        <v>315439</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7576657463536421</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7133465844692133</v>
+        <v>0.7080208788650009</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8006760075345299</v>
+        <v>0.7991777871805547</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>283</v>
@@ -3687,19 +3687,19 @@
         <v>301042</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>281848</v>
+        <v>282504</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>317274</v>
+        <v>317483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7588800227785579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7104948868860717</v>
+        <v>0.7121503619336692</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7998001468068345</v>
+        <v>0.8003251993216378</v>
       </c>
     </row>
     <row r="21">
@@ -3791,19 +3791,19 @@
         <v>116400</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2079926793826373</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>177</v>
@@ -3812,19 +3812,19 @@
         <v>193484</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>168036</v>
+        <v>168159</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>219941</v>
+        <v>218593</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2607578439195606</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2264615716873829</v>
+        <v>0.2266274670060287</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2964149255780742</v>
+        <v>0.2945978226840265</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>279</v>
@@ -3833,19 +3833,19 @@
         <v>309884</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>280152</v>
+        <v>276183</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>344905</v>
+        <v>341217</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2380716215064119</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2152296086376235</v>
+        <v>0.212180155956239</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2649767055685774</v>
+        <v>0.262143517435098</v>
       </c>
     </row>
     <row r="23">
@@ -3862,19 +3862,19 @@
         <v>443237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>420705</v>
+        <v>420744</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>463300</v>
+        <v>464284</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7920073206173627</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7517466541426695</v>
+        <v>0.7518155817868384</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8278585463154157</v>
+        <v>0.8296170217776601</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>516</v>
@@ -3883,19 +3883,19 @@
         <v>548521</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>522064</v>
+        <v>523412</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>573969</v>
+        <v>573846</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7392421560804394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7035850744219257</v>
+        <v>0.7054021773159733</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7735384283126168</v>
+        <v>0.7733725329939712</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>918</v>
@@ -3904,19 +3904,19 @@
         <v>991758</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>956737</v>
+        <v>960425</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1021490</v>
+        <v>1025459</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7619283784935881</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7350232944314226</v>
+        <v>0.7378564825649021</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7847703913623766</v>
+        <v>0.7878198440437609</v>
       </c>
     </row>
     <row r="24">
@@ -4250,19 +4250,19 @@
         <v>4073</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>843</v>
+        <v>915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9209</v>
+        <v>9544</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05933237084405833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01228566397613684</v>
+        <v>0.0133304214643579</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1341462248099025</v>
+        <v>0.1390319738231836</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4271,19 +4271,19 @@
         <v>4833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1207</v>
+        <v>1278</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10781</v>
+        <v>11049</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1310229371229326</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03273223425234231</v>
+        <v>0.0346524459584449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2922624247324653</v>
+        <v>0.2995304082876956</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -4292,19 +4292,19 @@
         <v>8906</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4150</v>
+        <v>4024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16956</v>
+        <v>16596</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08439075175970651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03932092644862375</v>
+        <v>0.03812750190839306</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.160668203786889</v>
+        <v>0.1572512106907636</v>
       </c>
     </row>
     <row r="5">
@@ -4321,19 +4321,19 @@
         <v>64574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59438</v>
+        <v>59103</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67804</v>
+        <v>67732</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9406676291559417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8658537751900973</v>
+        <v>0.8609680261768172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9877143360238632</v>
+        <v>0.9866695785356421</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4342,19 +4342,19 @@
         <v>32055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26107</v>
+        <v>25839</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35681</v>
+        <v>35610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8689770628770674</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7077375752675341</v>
+        <v>0.7004695917123046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9672677657476576</v>
+        <v>0.9653475540415551</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -4363,19 +4363,19 @@
         <v>96629</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>88579</v>
+        <v>88939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101385</v>
+        <v>101511</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9156092482402935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8393317962131109</v>
+        <v>0.8427487893092364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9606790735513762</v>
+        <v>0.9618724980916069</v>
       </c>
     </row>
     <row r="6">
@@ -4467,19 +4467,19 @@
         <v>7269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3627</v>
+        <v>3537</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12745</v>
+        <v>13398</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1362684404882944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06798519968095174</v>
+        <v>0.06630351345998534</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2389121455792514</v>
+        <v>0.2511698848111518</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4488,19 +4488,19 @@
         <v>3761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1072</v>
+        <v>1127</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8895</v>
+        <v>8768</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2138453506919036</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06095098271383038</v>
+        <v>0.06408560810595285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5057558543856652</v>
+        <v>0.4985164335068711</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4509,19 +4509,19 @@
         <v>11030</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6020</v>
+        <v>5718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17962</v>
+        <v>17916</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1555042367149098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08487331854602267</v>
+        <v>0.08061433808796759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2532333436503251</v>
+        <v>0.2525816752954441</v>
       </c>
     </row>
     <row r="8">
@@ -4538,19 +4538,19 @@
         <v>46075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40599</v>
+        <v>39946</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49717</v>
+        <v>49807</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8637315595117055</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7610878544207487</v>
+        <v>0.7488301151888482</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9320148003190483</v>
+        <v>0.9336964865400147</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -4559,19 +4559,19 @@
         <v>13827</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8693</v>
+        <v>8820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16516</v>
+        <v>16461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7861546493080963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4942441456143348</v>
+        <v>0.5014835664931289</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9390490172861696</v>
+        <v>0.9359143918940471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -4580,19 +4580,19 @@
         <v>59902</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52970</v>
+        <v>53016</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64912</v>
+        <v>65214</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8444957632850902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7467666563496752</v>
+        <v>0.7474183247045559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9151266814539776</v>
+        <v>0.9193856619120324</v>
       </c>
     </row>
     <row r="9">
@@ -4684,19 +4684,19 @@
         <v>13243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7500</v>
+        <v>7591</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20654</v>
+        <v>20691</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.110117264361301</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06236162968835136</v>
+        <v>0.06311701459763229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1717409877031472</v>
+        <v>0.1720516003370146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4705,19 +4705,19 @@
         <v>9384</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3764</v>
+        <v>3891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16816</v>
+        <v>17790</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2030856035264425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08145274370670412</v>
+        <v>0.08421413182392283</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3639052578521497</v>
+        <v>0.3849830743942587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -4726,19 +4726,19 @@
         <v>22627</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15086</v>
+        <v>15641</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32799</v>
+        <v>32923</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1359234929487001</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09062034405184491</v>
+        <v>0.09395657046727182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1970243729048589</v>
+        <v>0.1977686756232999</v>
       </c>
     </row>
     <row r="11">
@@ -4755,19 +4755,19 @@
         <v>107018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99607</v>
+        <v>99570</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>112761</v>
+        <v>112670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.889882735638699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8282590122968527</v>
+        <v>0.8279483996629854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9376383703116488</v>
+        <v>0.9368829854023677</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -4776,19 +4776,19 @@
         <v>36825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29393</v>
+        <v>28419</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42445</v>
+        <v>42318</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7969143964735574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6360947421478497</v>
+        <v>0.6150169256057396</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9185472562932958</v>
+        <v>0.9157858681760769</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>143</v>
@@ -4797,19 +4797,19 @@
         <v>143843</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>133671</v>
+        <v>133547</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151384</v>
+        <v>150829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8640765070512999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8029756270951411</v>
+        <v>0.8022313243766996</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9093796559481553</v>
+        <v>0.9060434295327282</v>
       </c>
     </row>
     <row r="12">
@@ -4901,19 +4901,19 @@
         <v>30449</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21497</v>
+        <v>21950</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39907</v>
+        <v>41257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1493658639155858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1054528060989171</v>
+        <v>0.1076749491631193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.195758723471236</v>
+        <v>0.2023849585591324</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -4922,19 +4922,19 @@
         <v>20450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12408</v>
+        <v>12439</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30671</v>
+        <v>31473</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2064677102680074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1252721271558168</v>
+        <v>0.1255900549510926</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3096665961252776</v>
+        <v>0.3177651661165036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -4943,19 +4943,19 @@
         <v>50899</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39395</v>
+        <v>37790</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66167</v>
+        <v>64102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1680376244552346</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.130057583015305</v>
+        <v>0.1247594861509332</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.218445147214296</v>
+        <v>0.2116259510957945</v>
       </c>
     </row>
     <row r="14">
@@ -4972,19 +4972,19 @@
         <v>173407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163949</v>
+        <v>162599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182359</v>
+        <v>181906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8506341360844142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.804241276528764</v>
+        <v>0.7976150414408675</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8945471939010828</v>
+        <v>0.8923250508368805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -4993,19 +4993,19 @@
         <v>78596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68375</v>
+        <v>67573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86638</v>
+        <v>86607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7935322897319926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6903334038747224</v>
+        <v>0.6822348338834962</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8747278728441832</v>
+        <v>0.8744099450489073</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>252</v>
@@ -5014,19 +5014,19 @@
         <v>252003</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>236735</v>
+        <v>238800</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>263507</v>
+        <v>265112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8319623755447654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7815548527857041</v>
+        <v>0.7883740489042056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.869942416984695</v>
+        <v>0.8752405138490674</v>
       </c>
     </row>
     <row r="15">
@@ -5118,19 +5118,19 @@
         <v>34052</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24743</v>
+        <v>25233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43417</v>
+        <v>45458</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2344841801048228</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1703833970574379</v>
+        <v>0.1737540715760664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2989702585336388</v>
+        <v>0.3130261502204144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -5139,19 +5139,19 @@
         <v>39582</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28425</v>
+        <v>27723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52449</v>
+        <v>51217</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2480873266746484</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1781556608270931</v>
+        <v>0.1737595314763805</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3287281575337113</v>
+        <v>0.3210102431936414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -5160,19 +5160,19 @@
         <v>73634</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58449</v>
+        <v>58123</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88565</v>
+        <v>88783</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2416055441990673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1917790200808981</v>
+        <v>0.1907103897930722</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2905963643487423</v>
+        <v>0.2913089254736176</v>
       </c>
     </row>
     <row r="17">
@@ -5189,19 +5189,19 @@
         <v>111169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101804</v>
+        <v>99763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120478</v>
+        <v>119988</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7655158198951771</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7010297414663612</v>
+        <v>0.6869738497795851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8296166029425619</v>
+        <v>0.8262459284239335</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -5210,19 +5210,19 @@
         <v>119968</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>107101</v>
+        <v>108333</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131125</v>
+        <v>131827</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7519126733253516</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6712718424662886</v>
+        <v>0.6789897568063585</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8218443391729067</v>
+        <v>0.8262404685236195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>228</v>
@@ -5231,19 +5231,19 @@
         <v>231137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>216206</v>
+        <v>215988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246322</v>
+        <v>246648</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7583944558009327</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7094036356512574</v>
+        <v>0.7086910745263824</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8082209799191014</v>
+        <v>0.8092896102069278</v>
       </c>
     </row>
     <row r="18">
@@ -5344,19 +5344,19 @@
         <v>103157</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84008</v>
+        <v>84972</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122184</v>
+        <v>124211</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2497257986787025</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2033671286097612</v>
+        <v>0.2057019447945314</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2957866658559637</v>
+        <v>0.3006927629335457</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -5365,19 +5365,19 @@
         <v>103157</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>84008</v>
+        <v>84972</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122184</v>
+        <v>124211</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2497257986787025</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2033671286097612</v>
+        <v>0.2057019447945314</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2957866658559637</v>
+        <v>0.3006927629335457</v>
       </c>
     </row>
     <row r="20">
@@ -5403,19 +5403,19 @@
         <v>309926</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>290899</v>
+        <v>288872</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>329075</v>
+        <v>328111</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7502742013212975</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7042133341440361</v>
+        <v>0.6993072370664541</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7966328713902388</v>
+        <v>0.7942980552054686</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>266</v>
@@ -5424,19 +5424,19 @@
         <v>309926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>290899</v>
+        <v>288872</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>329075</v>
+        <v>328111</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7502742013212975</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7042133341440361</v>
+        <v>0.6993072370664541</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7966328713902388</v>
+        <v>0.7942980552054686</v>
       </c>
     </row>
     <row r="21">
@@ -5516,19 +5516,19 @@
         <v>89086</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72676</v>
+        <v>74075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105269</v>
+        <v>106225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1506539530871139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1229027977679228</v>
+        <v>0.1252681364379513</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1780213972559931</v>
+        <v>0.1796375517790794</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>143</v>
@@ -5537,19 +5537,19 @@
         <v>181168</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>157357</v>
+        <v>154751</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>209350</v>
+        <v>206245</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2345633200799503</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2037337198385352</v>
+        <v>0.2003605732323451</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2710511844972623</v>
+        <v>0.2670312557111494</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>242</v>
@@ -5558,19 +5558,19 @@
         <v>270254</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>240751</v>
+        <v>241668</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>301023</v>
+        <v>300718</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1981783011254566</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1765438565527447</v>
+        <v>0.1772157247530606</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.220741303837822</v>
+        <v>0.2205174104861325</v>
       </c>
     </row>
     <row r="23">
@@ -5587,19 +5587,19 @@
         <v>502242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>486059</v>
+        <v>485103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>518652</v>
+        <v>517253</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8493460469128862</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8219786027440068</v>
+        <v>0.8203624482209205</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8770972022320772</v>
+        <v>0.8747318635620488</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>507</v>
@@ -5608,19 +5608,19 @@
         <v>591196</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>563014</v>
+        <v>566119</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>615007</v>
+        <v>617613</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7654366799200497</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7289488155027377</v>
+        <v>0.7329687442888506</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7962662801614648</v>
+        <v>0.7996394267676549</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1035</v>
@@ -5629,19 +5629,19 @@
         <v>1093438</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1062669</v>
+        <v>1062974</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1122941</v>
+        <v>1122024</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8018216988745435</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.779258696162178</v>
+        <v>0.7794825895138674</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8234561434472554</v>
+        <v>0.8227842752469393</v>
       </c>
     </row>
     <row r="24">
@@ -5975,19 +5975,19 @@
         <v>5578</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2940</v>
+        <v>2543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9983</v>
+        <v>9985</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04678325123850128</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02466297514864216</v>
+        <v>0.02133326887902891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08373544294772375</v>
+        <v>0.08374666819327445</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5996,19 +5996,19 @@
         <v>8259</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4583</v>
+        <v>4339</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14867</v>
+        <v>14237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.110770233988907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06146559503184465</v>
+        <v>0.05819645425924869</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1993983855416576</v>
+        <v>0.1909455178652444</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -6017,19 +6017,19 @@
         <v>13837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8737</v>
+        <v>9097</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20964</v>
+        <v>20728</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07140246552022741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04508432548294473</v>
+        <v>0.04694632190628421</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1081836900641123</v>
+        <v>0.1069664812815167</v>
       </c>
     </row>
     <row r="5">
@@ -6046,19 +6046,19 @@
         <v>113647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109242</v>
+        <v>109240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>116285</v>
+        <v>116682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9532167487614988</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9162645570522763</v>
+        <v>0.9162533318067255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9753370248513579</v>
+        <v>0.9786667311209714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -6067,19 +6067,19 @@
         <v>66300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59692</v>
+        <v>60322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69976</v>
+        <v>70220</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8892297660110932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8006016144583423</v>
+        <v>0.8090544821347561</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9385344049681552</v>
+        <v>0.9418035457407514</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>279</v>
@@ -6088,19 +6088,19 @@
         <v>179947</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>172820</v>
+        <v>173056</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>185047</v>
+        <v>184687</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9285975344797727</v>
+        <v>0.9285975344797726</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8918163099358875</v>
+        <v>0.8930335187184817</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9549156745170553</v>
+        <v>0.9530536780937156</v>
       </c>
     </row>
     <row r="6">
@@ -6192,19 +6192,19 @@
         <v>11060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6572</v>
+        <v>6745</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17733</v>
+        <v>17661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1056164552910481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06276394168333278</v>
+        <v>0.06441727295422048</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1693425204788493</v>
+        <v>0.168659702349649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -6213,19 +6213,19 @@
         <v>8053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4530</v>
+        <v>4433</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13168</v>
+        <v>12345</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1453933310071558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0817946700852723</v>
+        <v>0.08004586689833722</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2377495671513791</v>
+        <v>0.2228874112459697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -6234,19 +6234,19 @@
         <v>19112</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13395</v>
+        <v>12991</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26284</v>
+        <v>26193</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1193768168905673</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08366765666301383</v>
+        <v>0.08114372933433317</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.164175481228566</v>
+        <v>0.1636015685385993</v>
       </c>
     </row>
     <row r="8">
@@ -6263,19 +6263,19 @@
         <v>93655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86982</v>
+        <v>87054</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>98143</v>
+        <v>97970</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8943835447089521</v>
+        <v>0.8943835447089519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8306574795211507</v>
+        <v>0.8313402976503503</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9372360583166671</v>
+        <v>0.9355827270457794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -6284,19 +6284,19 @@
         <v>47332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42217</v>
+        <v>43040</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50855</v>
+        <v>50952</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8546066689928442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7622504328486208</v>
+        <v>0.7771125887540302</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9182053299147277</v>
+        <v>0.9199541331016629</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>215</v>
@@ -6305,19 +6305,19 @@
         <v>140988</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>133816</v>
+        <v>133907</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>146705</v>
+        <v>147109</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8806231831094326</v>
+        <v>0.8806231831094327</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.835824518771434</v>
+        <v>0.8363984314614007</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.916332343336986</v>
+        <v>0.9188562706656669</v>
       </c>
     </row>
     <row r="9">
@@ -6409,19 +6409,19 @@
         <v>15028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10395</v>
+        <v>9914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22275</v>
+        <v>21527</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1343143533422386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09290925567632549</v>
+        <v>0.08860665505453773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1990913815518434</v>
+        <v>0.1924043380065078</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -6430,19 +6430,19 @@
         <v>16723</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11541</v>
+        <v>11652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22683</v>
+        <v>22983</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2937300107990331</v>
+        <v>0.293730010799033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2027121456850383</v>
+        <v>0.2046539623158669</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.398408714526625</v>
+        <v>0.4036852174969355</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -6451,19 +6451,19 @@
         <v>31751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24348</v>
+        <v>24973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40291</v>
+        <v>40882</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1880772590894157</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1442271028824025</v>
+        <v>0.1479286195705384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2386624069189993</v>
+        <v>0.2421668091925835</v>
       </c>
     </row>
     <row r="11">
@@ -6480,19 +6480,19 @@
         <v>96856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89609</v>
+        <v>90357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101489</v>
+        <v>101970</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8656856466577615</v>
+        <v>0.8656856466577613</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8009086184481568</v>
+        <v>0.8075956619934922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9070907443236746</v>
+        <v>0.9113933449454628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -6501,19 +6501,19 @@
         <v>40211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34251</v>
+        <v>33951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45393</v>
+        <v>45282</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7062699892009668</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.601591285473375</v>
+        <v>0.5963147825030648</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7972878543149617</v>
+        <v>0.7953460376841331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>213</v>
@@ -6522,19 +6522,19 @@
         <v>137067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>128527</v>
+        <v>127936</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>144470</v>
+        <v>143845</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8119227409105845</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7613375930810006</v>
+        <v>0.7578331908074165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8557728971175974</v>
+        <v>0.8520713804294618</v>
       </c>
     </row>
     <row r="12">
@@ -6626,19 +6626,19 @@
         <v>55097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44928</v>
+        <v>44313</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66570</v>
+        <v>66416</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2141164553144546</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1745964311317688</v>
+        <v>0.1722060204294811</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2587023741203981</v>
+        <v>0.2581036480130249</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -6647,19 +6647,19 @@
         <v>24934</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19281</v>
+        <v>19217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31101</v>
+        <v>32025</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1905073911279255</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1473158776676849</v>
+        <v>0.1468313558303034</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2376294530957066</v>
+        <v>0.2446921755102308</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>132</v>
@@ -6668,19 +6668,19 @@
         <v>80031</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68739</v>
+        <v>67836</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93212</v>
+        <v>92763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2061568529509493</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1770687474233509</v>
+        <v>0.1747436200270935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2401116749395474</v>
+        <v>0.2389546745460909</v>
       </c>
     </row>
     <row r="14">
@@ -6697,19 +6697,19 @@
         <v>202227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190754</v>
+        <v>190908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212396</v>
+        <v>213011</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7858835446855453</v>
+        <v>0.7858835446855454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.741297625879602</v>
+        <v>0.7418963519869751</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8254035688682311</v>
+        <v>0.8277939795705189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>208</v>
@@ -6718,19 +6718,19 @@
         <v>105946</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>99779</v>
+        <v>98855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111599</v>
+        <v>111663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8094926088720744</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7623705469042934</v>
+        <v>0.7553078244897693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8526841223323155</v>
+        <v>0.8531686441696966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>494</v>
@@ -6739,19 +6739,19 @@
         <v>308173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>294992</v>
+        <v>295441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>319465</v>
+        <v>320368</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7938431470490509</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7598883250604526</v>
+        <v>0.7610453254539091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8229312525766491</v>
+        <v>0.8252563799729066</v>
       </c>
     </row>
     <row r="15">
@@ -6843,19 +6843,19 @@
         <v>21725</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15294</v>
+        <v>15831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28516</v>
+        <v>29394</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2193245225861414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.154399153498072</v>
+        <v>0.159822789753737</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2878840960016907</v>
+        <v>0.2967448835918114</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>157</v>
@@ -6864,19 +6864,19 @@
         <v>74978</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64925</v>
+        <v>65390</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85076</v>
+        <v>84557</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3435042155987393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2974466120211125</v>
+        <v>0.2995770118931826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3897653910259385</v>
+        <v>0.3873907837603499</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -6885,19 +6885,19 @@
         <v>96703</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84638</v>
+        <v>84073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>108853</v>
+        <v>107921</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3047415571374096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2667220529017041</v>
+        <v>0.2649412006066834</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3430306976179405</v>
+        <v>0.3400930526622117</v>
       </c>
     </row>
     <row r="17">
@@ -6914,19 +6914,19 @@
         <v>77329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70538</v>
+        <v>69660</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83760</v>
+        <v>83223</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7806754774138586</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7121159039983093</v>
+        <v>0.7032551164081886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8456008465019278</v>
+        <v>0.8401772102462632</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>282</v>
@@ -6935,19 +6935,19 @@
         <v>143296</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133198</v>
+        <v>133717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>153349</v>
+        <v>152884</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6564957844012608</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6102346089740616</v>
+        <v>0.61260921623965</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7025533879788877</v>
+        <v>0.700422988106817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -6956,19 +6956,19 @@
         <v>220624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>208474</v>
+        <v>209406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>232689</v>
+        <v>233254</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6952584428625906</v>
+        <v>0.6952584428625905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6569693023820595</v>
+        <v>0.6599069473377881</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7332779470982962</v>
+        <v>0.7350587993933168</v>
       </c>
     </row>
     <row r="18">
@@ -7060,7 +7060,7 @@
         <v>2204</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>3276</v>
@@ -7069,7 +7069,7 @@
         <v>0.6727456091529725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1753445647139325</v>
+        <v>0.1892256228645394</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -7081,19 +7081,19 @@
         <v>117371</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>103934</v>
+        <v>104196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>130379</v>
+        <v>129775</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3415278610762994</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3024304036693222</v>
+        <v>0.3031904818432321</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3793798696064415</v>
+        <v>0.3776214634073859</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>214</v>
@@ -7102,19 +7102,19 @@
         <v>119575</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106952</v>
+        <v>107330</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133088</v>
+        <v>134386</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3446555487070181</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3082715744946035</v>
+        <v>0.3093597080814158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3836052317091103</v>
+        <v>0.3873440305205229</v>
       </c>
     </row>
     <row r="20">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>423</v>
@@ -7152,19 +7152,19 @@
         <v>226293</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>213285</v>
+        <v>213889</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>239730</v>
+        <v>239468</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6584721389237005</v>
+        <v>0.6584721389237006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6206201303935586</v>
+        <v>0.6223785365926137</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6975695963306778</v>
+        <v>0.6968095181567672</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>425</v>
@@ -7173,19 +7173,19 @@
         <v>227366</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>213853</v>
+        <v>212555</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>239989</v>
+        <v>239611</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6553444512929819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6163947682908897</v>
+        <v>0.6126559694794773</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6917284255053966</v>
+        <v>0.6906402919185843</v>
       </c>
     </row>
     <row r="21">
@@ -7277,19 +7277,19 @@
         <v>110691</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94081</v>
+        <v>96350</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126088</v>
+        <v>128490</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1591585300768941</v>
+        <v>0.1591585300768942</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1352757995638374</v>
+        <v>0.1385371688034276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1812967504419667</v>
+        <v>0.1847511929448603</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>473</v>
@@ -7298,19 +7298,19 @@
         <v>250317</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>229002</v>
+        <v>231377</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>269784</v>
+        <v>271851</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.284549733136967</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2603191527396718</v>
+        <v>0.2630197662247222</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3066781777673712</v>
+        <v>0.3090288375069379</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>648</v>
@@ -7319,19 +7319,19 @@
         <v>361008</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334657</v>
+        <v>334731</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>386851</v>
+        <v>386279</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2291864089134333</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2124573067379908</v>
+        <v>0.2125043959501758</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2455928166861906</v>
+        <v>0.2452293185627985</v>
       </c>
     </row>
     <row r="23">
@@ -7348,19 +7348,19 @@
         <v>584787</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>569390</v>
+        <v>566988</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>601397</v>
+        <v>599128</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8408414699231057</v>
+        <v>0.8408414699231058</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8187032495580333</v>
+        <v>0.8152488070551394</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8647242004361625</v>
+        <v>0.8614628311965722</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1192</v>
@@ -7369,19 +7369,19 @@
         <v>629379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>609912</v>
+        <v>607845</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>650694</v>
+        <v>648319</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7154502668630333</v>
+        <v>0.7154502668630331</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6933218222326289</v>
+        <v>0.6909711624930621</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7396808472603281</v>
+        <v>0.7369802337752778</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2015</v>
@@ -7390,19 +7390,19 @@
         <v>1214166</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1188323</v>
+        <v>1188895</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1240517</v>
+        <v>1240443</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7708135910865667</v>
+        <v>0.7708135910865666</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7544071833138093</v>
+        <v>0.7547706814372015</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7875426932620087</v>
+        <v>0.7874956040498244</v>
       </c>
     </row>
     <row r="24">
